--- a/Output_testing/R1_201907/Country/HKD/MN/URUGUAY_201907_HKD_MN.xlsx
+++ b/Output_testing/R1_201907/Country/HKD/MN/URUGUAY_201907_HKD_MN.xlsx
@@ -810,136 +810,433 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="11" t="n"/>
-      <c r="C18" s="12" t="n"/>
-      <c r="D18" s="13" t="n"/>
-      <c r="E18" s="12" t="n"/>
-      <c r="F18" s="13" t="n"/>
-      <c r="G18" s="12" t="n"/>
-      <c r="H18" s="13" t="n"/>
-      <c r="I18" s="12" t="n"/>
-      <c r="J18" s="13" t="n"/>
-      <c r="K18" s="13" t="n"/>
+      <c r="A18" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B18" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C18" s="8" t="n">
+        <v>239.526612</v>
+      </c>
+      <c r="D18" s="9" t="n">
+        <v>37.00310595206877</v>
+      </c>
+      <c r="E18" s="8" t="n">
+        <v>409.39417</v>
+      </c>
+      <c r="F18" s="9" t="n">
+        <v>52.19265052838347</v>
+      </c>
+      <c r="G18" s="8" t="n">
+        <v>368.991021</v>
+      </c>
+      <c r="H18" s="9" t="n">
+        <v>51.79358365051534</v>
+      </c>
+      <c r="I18" s="8" t="n">
+        <v>268.031422</v>
+      </c>
+      <c r="J18" s="9" t="n">
+        <v>51.93918127960535</v>
+      </c>
+      <c r="K18" s="9" t="n">
+        <v>25.87414073790766</v>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" s="11" t="n"/>
-      <c r="C19" s="12" t="n"/>
-      <c r="D19" s="13" t="n"/>
-      <c r="E19" s="12" t="n"/>
-      <c r="F19" s="13" t="n"/>
-      <c r="G19" s="12" t="n"/>
-      <c r="H19" s="13" t="n"/>
-      <c r="I19" s="12" t="n"/>
-      <c r="J19" s="13" t="n"/>
-      <c r="K19" s="13" t="n"/>
+      <c r="A19" s="11" t="inlineStr">
+        <is>
+          <t>752</t>
+        </is>
+      </c>
+      <c r="B19" s="1" t="inlineStr">
+        <is>
+          <t>AUTOMATIC DATA PROCESSING MACHINES &amp; UNITS THEREOF; MAGNETIC OR OPTICAL READERS, MACHINES FOR TRANSCRIBING DATA ONTO DATA MEDIA IN CODED FORM AND FOR PROCESSING SUCH DATA, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C19" s="8" t="n">
+        <v>23.180185</v>
+      </c>
+      <c r="D19" s="9" t="n">
+        <v>3.580975134168204</v>
+      </c>
+      <c r="E19" s="8" t="n">
+        <v>66.474442</v>
+      </c>
+      <c r="F19" s="9" t="n">
+        <v>8.474662256121762</v>
+      </c>
+      <c r="G19" s="8" t="n">
+        <v>42.362916</v>
+      </c>
+      <c r="H19" s="9" t="n">
+        <v>5.946288957328734</v>
+      </c>
+      <c r="I19" s="8" t="n">
+        <v>65.3347</v>
+      </c>
+      <c r="J19" s="9" t="n">
+        <v>12.66057092048197</v>
+      </c>
+      <c r="K19" s="9" t="n">
+        <v>136.8934863473707</v>
+      </c>
     </row>
     <row r="20">
-      <c r="A20" s="11" t="n"/>
-      <c r="C20" s="12" t="n"/>
-      <c r="D20" s="13" t="n"/>
-      <c r="E20" s="12" t="n"/>
-      <c r="F20" s="13" t="n"/>
-      <c r="G20" s="12" t="n"/>
-      <c r="H20" s="13" t="n"/>
-      <c r="I20" s="12" t="n"/>
-      <c r="J20" s="13" t="n"/>
-      <c r="K20" s="13" t="n"/>
+      <c r="A20" s="11" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
+      <c r="B20" s="1" t="inlineStr">
+        <is>
+          <t>TOBACCO, MANUFACTURED</t>
+        </is>
+      </c>
+      <c r="C20" s="8" t="n">
+        <v>131.201898</v>
+      </c>
+      <c r="D20" s="9" t="n">
+        <v>20.26863609128542</v>
+      </c>
+      <c r="E20" s="8" t="n">
+        <v>77.738766</v>
+      </c>
+      <c r="F20" s="9" t="n">
+        <v>9.910723072450638</v>
+      </c>
+      <c r="G20" s="8" t="n">
+        <v>45.660247</v>
+      </c>
+      <c r="H20" s="9" t="n">
+        <v>6.4091202438709</v>
+      </c>
+      <c r="I20" s="8" t="n">
+        <v>47.559875</v>
+      </c>
+      <c r="J20" s="9" t="n">
+        <v>9.216161862023664</v>
+      </c>
+      <c r="K20" s="9" t="n">
+        <v>213.6948268975157</v>
+      </c>
     </row>
     <row r="21">
-      <c r="A21" s="11" t="n"/>
-      <c r="C21" s="12" t="n"/>
-      <c r="D21" s="13" t="n"/>
-      <c r="E21" s="12" t="n"/>
-      <c r="F21" s="13" t="n"/>
-      <c r="G21" s="12" t="n"/>
-      <c r="H21" s="13" t="n"/>
-      <c r="I21" s="12" t="n"/>
-      <c r="J21" s="13" t="n"/>
-      <c r="K21" s="13" t="n"/>
+      <c r="A21" s="11" t="inlineStr">
+        <is>
+          <t>845</t>
+        </is>
+      </c>
+      <c r="B21" s="1" t="inlineStr">
+        <is>
+          <t>ARTICLES OF APPAREL, OF TEXTILE FABRICS, WHETHER OR NOT KNITTED OR CROCHETED, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C21" s="8" t="n">
+        <v>17.906356</v>
+      </c>
+      <c r="D21" s="9" t="n">
+        <v>2.766251243446229</v>
+      </c>
+      <c r="E21" s="8" t="n">
+        <v>20.799876</v>
+      </c>
+      <c r="F21" s="9" t="n">
+        <v>2.651724764672908</v>
+      </c>
+      <c r="G21" s="8" t="n">
+        <v>51.908343</v>
+      </c>
+      <c r="H21" s="9" t="n">
+        <v>7.286136931039692</v>
+      </c>
+      <c r="I21" s="8" t="n">
+        <v>28.056187</v>
+      </c>
+      <c r="J21" s="9" t="n">
+        <v>5.436733393920908</v>
+      </c>
+      <c r="K21" s="9" t="n">
+        <v>15.88404155705545</v>
+      </c>
     </row>
     <row r="22">
-      <c r="A22" s="11" t="n"/>
-      <c r="C22" s="12" t="n"/>
-      <c r="D22" s="13" t="n"/>
-      <c r="E22" s="12" t="n"/>
-      <c r="F22" s="13" t="n"/>
-      <c r="G22" s="12" t="n"/>
-      <c r="H22" s="13" t="n"/>
-      <c r="I22" s="12" t="n"/>
-      <c r="J22" s="13" t="n"/>
-      <c r="K22" s="13" t="n"/>
+      <c r="A22" s="11" t="inlineStr">
+        <is>
+          <t>759</t>
+        </is>
+      </c>
+      <c r="B22" s="1" t="inlineStr">
+        <is>
+          <t>PARTS AND ACCESSORIES (OTHER THAN COVERS, CARRYING CASES AND THE LIKE) SUITABLE FOR USE SOLELY WITH MACHINES FALLING WITHIN GROUPS 751 AND 752</t>
+        </is>
+      </c>
+      <c r="C22" s="8" t="n">
+        <v>38.148244</v>
+      </c>
+      <c r="D22" s="9" t="n">
+        <v>5.893305561460418</v>
+      </c>
+      <c r="E22" s="8" t="n">
+        <v>32.782689</v>
+      </c>
+      <c r="F22" s="9" t="n">
+        <v>4.179383967186638</v>
+      </c>
+      <c r="G22" s="8" t="n">
+        <v>28.161994</v>
+      </c>
+      <c r="H22" s="9" t="n">
+        <v>3.95297042202095</v>
+      </c>
+      <c r="I22" s="8" t="n">
+        <v>20.710191</v>
+      </c>
+      <c r="J22" s="9" t="n">
+        <v>4.013224854973352</v>
+      </c>
+      <c r="K22" s="9" t="n">
+        <v>7.195000814953989</v>
+      </c>
     </row>
     <row r="23">
-      <c r="A23" s="11" t="n"/>
-      <c r="C23" s="12" t="n"/>
-      <c r="D23" s="13" t="n"/>
-      <c r="E23" s="12" t="n"/>
-      <c r="F23" s="13" t="n"/>
-      <c r="G23" s="12" t="n"/>
-      <c r="H23" s="13" t="n"/>
-      <c r="I23" s="12" t="n"/>
-      <c r="J23" s="13" t="n"/>
-      <c r="K23" s="13" t="n"/>
+      <c r="A23" s="11" t="inlineStr">
+        <is>
+          <t>751</t>
+        </is>
+      </c>
+      <c r="B23" s="1" t="inlineStr">
+        <is>
+          <t>OFFICE MACHINES</t>
+        </is>
+      </c>
+      <c r="C23" s="8" t="n">
+        <v>26.476289</v>
+      </c>
+      <c r="D23" s="9" t="n">
+        <v>4.090171521670389</v>
+      </c>
+      <c r="E23" s="8" t="n">
+        <v>33.066469</v>
+      </c>
+      <c r="F23" s="9" t="n">
+        <v>4.215562377755955</v>
+      </c>
+      <c r="G23" s="8" t="n">
+        <v>35.963453</v>
+      </c>
+      <c r="H23" s="9" t="n">
+        <v>5.048025575985159</v>
+      </c>
+      <c r="I23" s="8" t="n">
+        <v>11.937275</v>
+      </c>
+      <c r="J23" s="9" t="n">
+        <v>2.313207479865928</v>
+      </c>
+      <c r="K23" s="9" t="n">
+        <v>-34.61075424267117</v>
+      </c>
     </row>
     <row r="24">
-      <c r="A24" s="11" t="n"/>
-      <c r="C24" s="12" t="n"/>
-      <c r="D24" s="13" t="n"/>
-      <c r="E24" s="12" t="n"/>
-      <c r="F24" s="13" t="n"/>
-      <c r="G24" s="12" t="n"/>
-      <c r="H24" s="13" t="n"/>
-      <c r="I24" s="12" t="n"/>
-      <c r="J24" s="13" t="n"/>
-      <c r="K24" s="13" t="n"/>
+      <c r="A24" s="11" t="inlineStr">
+        <is>
+          <t>851</t>
+        </is>
+      </c>
+      <c r="B24" s="1" t="inlineStr">
+        <is>
+          <t>FOOTWEAR</t>
+        </is>
+      </c>
+      <c r="C24" s="8" t="n">
+        <v>25.62873</v>
+      </c>
+      <c r="D24" s="9" t="n">
+        <v>3.959236945275055</v>
+      </c>
+      <c r="E24" s="8" t="n">
+        <v>21.854838</v>
+      </c>
+      <c r="F24" s="9" t="n">
+        <v>2.78621926171649</v>
+      </c>
+      <c r="G24" s="8" t="n">
+        <v>20.628925</v>
+      </c>
+      <c r="H24" s="9" t="n">
+        <v>2.895587946048441</v>
+      </c>
+      <c r="I24" s="8" t="n">
+        <v>10.580896</v>
+      </c>
+      <c r="J24" s="9" t="n">
+        <v>2.050368092456903</v>
+      </c>
+      <c r="K24" s="9" t="n">
+        <v>14.81891508568911</v>
+      </c>
     </row>
     <row r="25">
-      <c r="A25" s="11" t="n"/>
-      <c r="C25" s="12" t="n"/>
-      <c r="D25" s="13" t="n"/>
-      <c r="E25" s="12" t="n"/>
-      <c r="F25" s="13" t="n"/>
-      <c r="G25" s="12" t="n"/>
-      <c r="H25" s="13" t="n"/>
-      <c r="I25" s="12" t="n"/>
-      <c r="J25" s="13" t="n"/>
-      <c r="K25" s="13" t="n"/>
+      <c r="A25" s="11" t="inlineStr">
+        <is>
+          <t>778</t>
+        </is>
+      </c>
+      <c r="B25" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL MACHINERY AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C25" s="8" t="n">
+        <v>5.389657</v>
+      </c>
+      <c r="D25" s="9" t="n">
+        <v>0.8326175006237266</v>
+      </c>
+      <c r="E25" s="8" t="n">
+        <v>6.926377</v>
+      </c>
+      <c r="F25" s="9" t="n">
+        <v>0.8830266786379324</v>
+      </c>
+      <c r="G25" s="8" t="n">
+        <v>5.338997</v>
+      </c>
+      <c r="H25" s="9" t="n">
+        <v>0.7494106143286084</v>
+      </c>
+      <c r="I25" s="8" t="n">
+        <v>7.232382</v>
+      </c>
+      <c r="J25" s="9" t="n">
+        <v>1.401492395848106</v>
+      </c>
+      <c r="K25" s="9" t="n">
+        <v>156.1730295075766</v>
+      </c>
     </row>
     <row r="26">
-      <c r="A26" s="11" t="n"/>
-      <c r="C26" s="12" t="n"/>
-      <c r="D26" s="13" t="n"/>
-      <c r="E26" s="12" t="n"/>
-      <c r="F26" s="13" t="n"/>
-      <c r="G26" s="12" t="n"/>
-      <c r="H26" s="13" t="n"/>
-      <c r="I26" s="12" t="n"/>
-      <c r="J26" s="13" t="n"/>
-      <c r="K26" s="13" t="n"/>
+      <c r="A26" s="11" t="inlineStr">
+        <is>
+          <t>843</t>
+        </is>
+      </c>
+      <c r="B26" s="1" t="inlineStr">
+        <is>
+          <t>MEN'S OR BOYS' COATS, CAPES, JACKETS, SUITS, BLAZERS, TROUSERS, SHORTS, SHIRTS, UNDERWEAR, NIGHTWEAR AND SIMILAR ARTICLES OF TEXTILE FABRICS, KNITTED OR CROCHETED</t>
+        </is>
+      </c>
+      <c r="C26" s="8" t="n">
+        <v>6.100615</v>
+      </c>
+      <c r="D26" s="9" t="n">
+        <v>0.9424493643227418</v>
+      </c>
+      <c r="E26" s="8" t="n">
+        <v>10.557678</v>
+      </c>
+      <c r="F26" s="9" t="n">
+        <v>1.345972264932846</v>
+      </c>
+      <c r="G26" s="8" t="n">
+        <v>15.515743</v>
+      </c>
+      <c r="H26" s="9" t="n">
+        <v>2.177873951492164</v>
+      </c>
+      <c r="I26" s="8" t="n">
+        <v>6.95828</v>
+      </c>
+      <c r="J26" s="9" t="n">
+        <v>1.348376856778577</v>
+      </c>
+      <c r="K26" s="9" t="n">
+        <v>-33.68099689138609</v>
+      </c>
     </row>
     <row r="27">
-      <c r="A27" s="11" t="n"/>
-      <c r="C27" s="12" t="n"/>
-      <c r="D27" s="13" t="n"/>
-      <c r="E27" s="12" t="n"/>
-      <c r="F27" s="13" t="n"/>
-      <c r="G27" s="12" t="n"/>
-      <c r="H27" s="13" t="n"/>
-      <c r="I27" s="12" t="n"/>
-      <c r="J27" s="13" t="n"/>
-      <c r="K27" s="13" t="n"/>
+      <c r="A27" s="11" t="inlineStr">
+        <is>
+          <t>885</t>
+        </is>
+      </c>
+      <c r="B27" s="1" t="inlineStr">
+        <is>
+          <t>WATCHES AND CLOCKS</t>
+        </is>
+      </c>
+      <c r="C27" s="8" t="n">
+        <v>21.10448</v>
+      </c>
+      <c r="D27" s="9" t="n">
+        <v>3.260311257203088</v>
+      </c>
+      <c r="E27" s="8" t="n">
+        <v>13.274057</v>
+      </c>
+      <c r="F27" s="9" t="n">
+        <v>1.692276707542861</v>
+      </c>
+      <c r="G27" s="8" t="n">
+        <v>10.397936</v>
+      </c>
+      <c r="H27" s="9" t="n">
+        <v>1.459510766818104</v>
+      </c>
+      <c r="I27" s="8" t="n">
+        <v>5.556294</v>
+      </c>
+      <c r="J27" s="9" t="n">
+        <v>1.076699736006264</v>
+      </c>
+      <c r="K27" s="9" t="n">
+        <v>1.14665033163095</v>
+      </c>
     </row>
     <row r="28">
-      <c r="A28" s="11" t="n"/>
-      <c r="C28" s="12" t="n"/>
-      <c r="D28" s="13" t="n"/>
-      <c r="E28" s="12" t="n"/>
-      <c r="F28" s="13" t="n"/>
-      <c r="G28" s="12" t="n"/>
-      <c r="H28" s="13" t="n"/>
-      <c r="I28" s="12" t="n"/>
-      <c r="J28" s="13" t="n"/>
-      <c r="K28" s="13" t="n"/>
+      <c r="A28" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B28" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C28" s="8" t="n">
+        <v>112.651817</v>
+      </c>
+      <c r="D28" s="9" t="n">
+        <v>17.40293942847596</v>
+      </c>
+      <c r="E28" s="8" t="n">
+        <v>91.521095</v>
+      </c>
+      <c r="F28" s="9" t="n">
+        <v>11.6677981205985</v>
+      </c>
+      <c r="G28" s="8" t="n">
+        <v>87.49655</v>
+      </c>
+      <c r="H28" s="9" t="n">
+        <v>12.28149094055191</v>
+      </c>
+      <c r="I28" s="8" t="n">
+        <v>44.091106</v>
+      </c>
+      <c r="J28" s="9" t="n">
+        <v>8.543983128038978</v>
+      </c>
+      <c r="K28" s="9" t="n">
+        <v>-13.5891550191663</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="11" t="n"/>
@@ -971,136 +1268,607 @@
       <c r="K30" s="13" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" s="11" t="n"/>
-      <c r="C31" s="12" t="n"/>
-      <c r="D31" s="13" t="n"/>
-      <c r="E31" s="12" t="n"/>
-      <c r="F31" s="13" t="n"/>
-      <c r="G31" s="12" t="n"/>
-      <c r="H31" s="13" t="n"/>
-      <c r="I31" s="12" t="n"/>
-      <c r="J31" s="13" t="n"/>
-      <c r="K31" s="13" t="n"/>
+      <c r="A31" s="11" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
+      <c r="B31" s="1" t="inlineStr">
+        <is>
+          <t>TOBACCO, MANUFACTURED</t>
+        </is>
+      </c>
+      <c r="C31" s="8" t="n">
+        <v>118.027481</v>
+      </c>
+      <c r="D31" s="9" t="n">
+        <v>99.89209172563018</v>
+      </c>
+      <c r="E31" s="8" t="n">
+        <v>77.738766</v>
+      </c>
+      <c r="F31" s="9" t="n">
+        <v>99.47020463088624</v>
+      </c>
+      <c r="G31" s="8" t="n">
+        <v>41.084045</v>
+      </c>
+      <c r="H31" s="9" t="n">
+        <v>99.79973030976724</v>
+      </c>
+      <c r="I31" s="8" t="n">
+        <v>42.516708</v>
+      </c>
+      <c r="J31" s="9" t="n">
+        <v>99.99990827143948</v>
+      </c>
+      <c r="K31" s="9" t="n">
+        <v>180.4311692642636</v>
+      </c>
     </row>
     <row r="32">
-      <c r="A32" s="11" t="n"/>
-      <c r="C32" s="12" t="n"/>
-      <c r="D32" s="13" t="n"/>
-      <c r="E32" s="12" t="n"/>
-      <c r="F32" s="13" t="n"/>
-      <c r="G32" s="12" t="n"/>
-      <c r="H32" s="13" t="n"/>
-      <c r="I32" s="12" t="n"/>
-      <c r="J32" s="13" t="n"/>
-      <c r="K32" s="13" t="n"/>
+      <c r="A32" s="11" t="inlineStr">
+        <is>
+          <t>931</t>
+        </is>
+      </c>
+      <c r="B32" s="1" t="inlineStr">
+        <is>
+          <t>SPECIAL TRANSACTIONS AND COMMODITIES NOT CLASSIFIED ACCORDING TO KIND</t>
+        </is>
+      </c>
+      <c r="C32" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D32" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="E32" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F32" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="G32" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H32" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I32" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J32" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="K32" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="33">
-      <c r="A33" s="11" t="n"/>
-      <c r="C33" s="12" t="n"/>
-      <c r="D33" s="13" t="n"/>
-      <c r="E33" s="12" t="n"/>
-      <c r="F33" s="13" t="n"/>
-      <c r="G33" s="12" t="n"/>
-      <c r="H33" s="13" t="n"/>
-      <c r="I33" s="12" t="n"/>
-      <c r="J33" s="13" t="n"/>
-      <c r="K33" s="13" t="n"/>
+      <c r="A33" s="11" t="inlineStr">
+        <is>
+          <t>893</t>
+        </is>
+      </c>
+      <c r="B33" s="1" t="inlineStr">
+        <is>
+          <t>ARTICLES, N.E.S. OF PLASTICS</t>
+        </is>
+      </c>
+      <c r="C33" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D33" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E33" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F33" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G33" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H33" s="9" t="n">
+        <v>0.1712582289930045</v>
+      </c>
+      <c r="I33" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J33" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K33" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="34">
-      <c r="A34" s="11" t="n"/>
-      <c r="C34" s="12" t="n"/>
-      <c r="D34" s="13" t="n"/>
-      <c r="E34" s="12" t="n"/>
-      <c r="F34" s="13" t="n"/>
-      <c r="G34" s="12" t="n"/>
-      <c r="H34" s="13" t="n"/>
-      <c r="I34" s="12" t="n"/>
-      <c r="J34" s="13" t="n"/>
-      <c r="K34" s="13" t="n"/>
+      <c r="A34" s="11" t="inlineStr">
+        <is>
+          <t>098</t>
+        </is>
+      </c>
+      <c r="B34" s="1" t="inlineStr">
+        <is>
+          <t>EDIBLE PRODUCTS AND PREPARATIONS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C34" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D34" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="E34" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F34" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="G34" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H34" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="I34" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J34" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K34" s="9" t="n">
+        <v>-100</v>
+      </c>
     </row>
     <row r="35">
-      <c r="A35" s="11" t="n"/>
-      <c r="C35" s="12" t="n"/>
-      <c r="D35" s="13" t="n"/>
-      <c r="E35" s="12" t="n"/>
-      <c r="F35" s="13" t="n"/>
-      <c r="G35" s="12" t="n"/>
-      <c r="H35" s="13" t="n"/>
-      <c r="I35" s="12" t="n"/>
-      <c r="J35" s="13" t="n"/>
-      <c r="K35" s="13" t="n"/>
+      <c r="A35" s="11" t="inlineStr">
+        <is>
+          <t>742</t>
+        </is>
+      </c>
+      <c r="B35" s="1" t="inlineStr">
+        <is>
+          <t>PUMPS FOR LIQUIDS, WHETHER OR NOT FITTED WITH A MEASURING DEVICE; LIQUID ELEVATORS; PARTS FOR SUCH PUMPS AND LIQUID ELEVATORS</t>
+        </is>
+      </c>
+      <c r="C35" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D35" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E35" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F35" s="9" t="n">
+        <v>0.4673484830028389</v>
+      </c>
+      <c r="G35" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H35" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I35" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J35" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K35" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="36">
-      <c r="A36" s="11" t="n"/>
-      <c r="C36" s="12" t="n"/>
-      <c r="D36" s="13" t="n"/>
-      <c r="E36" s="12" t="n"/>
-      <c r="F36" s="13" t="n"/>
-      <c r="G36" s="12" t="n"/>
-      <c r="H36" s="13" t="n"/>
-      <c r="I36" s="12" t="n"/>
-      <c r="J36" s="13" t="n"/>
-      <c r="K36" s="13" t="n"/>
+      <c r="A36" s="11" t="inlineStr">
+        <is>
+          <t>759</t>
+        </is>
+      </c>
+      <c r="B36" s="1" t="inlineStr">
+        <is>
+          <t>PARTS AND ACCESSORIES (OTHER THAN COVERS, CARRYING CASES AND THE LIKE) SUITABLE FOR USE SOLELY WITH MACHINES FALLING WITHIN GROUPS 751 AND 752</t>
+        </is>
+      </c>
+      <c r="C36" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D36" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="E36" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F36" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G36" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H36" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I36" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J36" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K36" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="37">
-      <c r="A37" s="11" t="n"/>
-      <c r="C37" s="12" t="n"/>
-      <c r="D37" s="13" t="n"/>
-      <c r="E37" s="12" t="n"/>
-      <c r="F37" s="13" t="n"/>
-      <c r="G37" s="12" t="n"/>
-      <c r="H37" s="13" t="n"/>
-      <c r="I37" s="12" t="n"/>
-      <c r="J37" s="13" t="n"/>
-      <c r="K37" s="13" t="n"/>
+      <c r="A37" s="11" t="inlineStr">
+        <is>
+          <t>656</t>
+        </is>
+      </c>
+      <c r="B37" s="1" t="inlineStr">
+        <is>
+          <t>TULLES, LACE, EMBROIDERY, RIBBONS, TRIMMINGS AND OTHER SMALL WARES</t>
+        </is>
+      </c>
+      <c r="C37" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D37" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="E37" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G37" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I37" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="38">
-      <c r="A38" s="11" t="n"/>
-      <c r="C38" s="12" t="n"/>
-      <c r="D38" s="13" t="n"/>
-      <c r="E38" s="12" t="n"/>
-      <c r="F38" s="13" t="n"/>
-      <c r="G38" s="12" t="n"/>
-      <c r="H38" s="13" t="n"/>
-      <c r="I38" s="12" t="n"/>
-      <c r="J38" s="13" t="n"/>
-      <c r="K38" s="13" t="n"/>
+      <c r="A38" s="11" t="inlineStr">
+        <is>
+          <t>001</t>
+        </is>
+      </c>
+      <c r="B38" s="1" t="inlineStr">
+        <is>
+          <t>LIVE ANIMALS OTHER THAN ANIMALS OF DIVISION 03</t>
+        </is>
+      </c>
+      <c r="C38" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E38" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G38" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I38" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="39">
-      <c r="A39" s="11" t="n"/>
-      <c r="C39" s="12" t="n"/>
-      <c r="D39" s="13" t="n"/>
-      <c r="E39" s="12" t="n"/>
-      <c r="F39" s="13" t="n"/>
-      <c r="G39" s="12" t="n"/>
-      <c r="H39" s="13" t="n"/>
-      <c r="I39" s="12" t="n"/>
-      <c r="J39" s="13" t="n"/>
-      <c r="K39" s="13" t="n"/>
+      <c r="A39" s="11" t="inlineStr">
+        <is>
+          <t>011</t>
+        </is>
+      </c>
+      <c r="B39" s="1" t="inlineStr">
+        <is>
+          <t>MEAT OF BOVINE ANIMALS, FRESH, CHILLED OR FROZEN</t>
+        </is>
+      </c>
+      <c r="C39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="40">
-      <c r="A40" s="11" t="n"/>
-      <c r="C40" s="12" t="n"/>
-      <c r="D40" s="13" t="n"/>
-      <c r="E40" s="12" t="n"/>
-      <c r="F40" s="13" t="n"/>
-      <c r="G40" s="12" t="n"/>
-      <c r="H40" s="13" t="n"/>
-      <c r="I40" s="12" t="n"/>
-      <c r="J40" s="13" t="n"/>
-      <c r="K40" s="13" t="n"/>
+      <c r="A40" s="11" t="inlineStr">
+        <is>
+          <t>012</t>
+        </is>
+      </c>
+      <c r="B40" s="1" t="inlineStr">
+        <is>
+          <t>OTHER MEAT AND EDIBLE MEAT OFFAL, FRESH, CHILLED OR FROZEN (EXCEPT MEAT AND MEAT OFFAL UNFIT FOR HUMAN CONSUMPTION)</t>
+        </is>
+      </c>
+      <c r="C40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="41">
-      <c r="A41" s="11" t="n"/>
-      <c r="C41" s="12" t="n"/>
-      <c r="D41" s="13" t="n"/>
-      <c r="E41" s="12" t="n"/>
-      <c r="F41" s="13" t="n"/>
-      <c r="G41" s="12" t="n"/>
-      <c r="H41" s="13" t="n"/>
-      <c r="I41" s="12" t="n"/>
-      <c r="J41" s="13" t="n"/>
-      <c r="K41" s="13" t="n"/>
+      <c r="A41" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B41" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="11" t="n"/>
@@ -1132,136 +1900,439 @@
       <c r="K43" s="13" t="n"/>
     </row>
     <row r="44">
-      <c r="A44" s="11" t="n"/>
-      <c r="C44" s="12" t="n"/>
-      <c r="D44" s="13" t="n"/>
-      <c r="E44" s="12" t="n"/>
-      <c r="F44" s="13" t="n"/>
-      <c r="G44" s="12" t="n"/>
-      <c r="H44" s="13" t="n"/>
-      <c r="I44" s="12" t="n"/>
-      <c r="J44" s="13" t="n"/>
-      <c r="K44" s="13" t="n"/>
+      <c r="A44" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B44" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C44" s="8" t="n">
+        <v>239.526612</v>
+      </c>
+      <c r="D44" s="9" t="n">
+        <v>45.26545012992037</v>
+      </c>
+      <c r="E44" s="8" t="n">
+        <v>409.39417</v>
+      </c>
+      <c r="F44" s="9" t="n">
+        <v>57.96833052119916</v>
+      </c>
+      <c r="G44" s="8" t="n">
+        <v>368.991021</v>
+      </c>
+      <c r="H44" s="9" t="n">
+        <v>54.96994027509201</v>
+      </c>
+      <c r="I44" s="8" t="n">
+        <v>268.031422</v>
+      </c>
+      <c r="J44" s="9" t="n">
+        <v>56.60261622818238</v>
+      </c>
+      <c r="K44" s="9" t="n">
+        <v>25.87414073790766</v>
+      </c>
     </row>
     <row r="45">
-      <c r="A45" s="11" t="n"/>
-      <c r="C45" s="12" t="n"/>
-      <c r="D45" s="13" t="n"/>
-      <c r="E45" s="12" t="n"/>
-      <c r="F45" s="13" t="n"/>
-      <c r="G45" s="12" t="n"/>
-      <c r="H45" s="13" t="n"/>
-      <c r="I45" s="12" t="n"/>
-      <c r="J45" s="13" t="n"/>
-      <c r="K45" s="13" t="n"/>
+      <c r="A45" s="11" t="inlineStr">
+        <is>
+          <t>752</t>
+        </is>
+      </c>
+      <c r="B45" s="1" t="inlineStr">
+        <is>
+          <t>AUTOMATIC DATA PROCESSING MACHINES &amp; UNITS THEREOF; MAGNETIC OR OPTICAL READERS, MACHINES FOR TRANSCRIBING DATA ONTO DATA MEDIA IN CODED FORM AND FOR PROCESSING SUCH DATA, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C45" s="8" t="n">
+        <v>23.180185</v>
+      </c>
+      <c r="D45" s="9" t="n">
+        <v>4.380563392763341</v>
+      </c>
+      <c r="E45" s="8" t="n">
+        <v>66.474442</v>
+      </c>
+      <c r="F45" s="9" t="n">
+        <v>9.412475084997629</v>
+      </c>
+      <c r="G45" s="8" t="n">
+        <v>42.362916</v>
+      </c>
+      <c r="H45" s="9" t="n">
+        <v>6.310958342801354</v>
+      </c>
+      <c r="I45" s="8" t="n">
+        <v>65.3347</v>
+      </c>
+      <c r="J45" s="9" t="n">
+        <v>13.79731869826601</v>
+      </c>
+      <c r="K45" s="9" t="n">
+        <v>136.8934863473707</v>
+      </c>
     </row>
     <row r="46">
-      <c r="A46" s="11" t="n"/>
-      <c r="C46" s="12" t="n"/>
-      <c r="D46" s="13" t="n"/>
-      <c r="E46" s="12" t="n"/>
-      <c r="F46" s="13" t="n"/>
-      <c r="G46" s="12" t="n"/>
-      <c r="H46" s="13" t="n"/>
-      <c r="I46" s="12" t="n"/>
-      <c r="J46" s="13" t="n"/>
-      <c r="K46" s="13" t="n"/>
+      <c r="A46" s="11" t="inlineStr">
+        <is>
+          <t>845</t>
+        </is>
+      </c>
+      <c r="B46" s="1" t="inlineStr">
+        <is>
+          <t>ARTICLES OF APPAREL, OF TEXTILE FABRICS, WHETHER OR NOT KNITTED OR CROCHETED, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C46" s="8" t="n">
+        <v>17.906356</v>
+      </c>
+      <c r="D46" s="9" t="n">
+        <v>3.383921551591939</v>
+      </c>
+      <c r="E46" s="8" t="n">
+        <v>20.799876</v>
+      </c>
+      <c r="F46" s="9" t="n">
+        <v>2.945166724694585</v>
+      </c>
+      <c r="G46" s="8" t="n">
+        <v>51.908343</v>
+      </c>
+      <c r="H46" s="9" t="n">
+        <v>7.732975471207984</v>
+      </c>
+      <c r="I46" s="8" t="n">
+        <v>28.056187</v>
+      </c>
+      <c r="J46" s="9" t="n">
+        <v>5.924878410663058</v>
+      </c>
+      <c r="K46" s="9" t="n">
+        <v>15.88404155705545</v>
+      </c>
     </row>
     <row r="47">
-      <c r="A47" s="11" t="n"/>
-      <c r="C47" s="12" t="n"/>
-      <c r="D47" s="13" t="n"/>
-      <c r="E47" s="12" t="n"/>
-      <c r="F47" s="13" t="n"/>
-      <c r="G47" s="12" t="n"/>
-      <c r="H47" s="13" t="n"/>
-      <c r="I47" s="12" t="n"/>
-      <c r="J47" s="13" t="n"/>
-      <c r="K47" s="13" t="n"/>
+      <c r="A47" s="11" t="inlineStr">
+        <is>
+          <t>759</t>
+        </is>
+      </c>
+      <c r="B47" s="1" t="inlineStr">
+        <is>
+          <t>PARTS AND ACCESSORIES (OTHER THAN COVERS, CARRYING CASES AND THE LIKE) SUITABLE FOR USE SOLELY WITH MACHINES FALLING WITHIN GROUPS 751 AND 752</t>
+        </is>
+      </c>
+      <c r="C47" s="8" t="n">
+        <v>38.096097</v>
+      </c>
+      <c r="D47" s="9" t="n">
+        <v>7.199354445417986</v>
+      </c>
+      <c r="E47" s="8" t="n">
+        <v>32.782689</v>
+      </c>
+      <c r="F47" s="9" t="n">
+        <v>4.64187790296496</v>
+      </c>
+      <c r="G47" s="8" t="n">
+        <v>28.161994</v>
+      </c>
+      <c r="H47" s="9" t="n">
+        <v>4.195395118320507</v>
+      </c>
+      <c r="I47" s="8" t="n">
+        <v>20.710191</v>
+      </c>
+      <c r="J47" s="9" t="n">
+        <v>4.373558086728192</v>
+      </c>
+      <c r="K47" s="9" t="n">
+        <v>7.195000814953989</v>
+      </c>
     </row>
     <row r="48">
-      <c r="A48" s="11" t="n"/>
-      <c r="C48" s="12" t="n"/>
-      <c r="D48" s="13" t="n"/>
-      <c r="E48" s="12" t="n"/>
-      <c r="F48" s="13" t="n"/>
-      <c r="G48" s="12" t="n"/>
-      <c r="H48" s="13" t="n"/>
-      <c r="I48" s="12" t="n"/>
-      <c r="J48" s="13" t="n"/>
-      <c r="K48" s="13" t="n"/>
+      <c r="A48" s="11" t="inlineStr">
+        <is>
+          <t>751</t>
+        </is>
+      </c>
+      <c r="B48" s="1" t="inlineStr">
+        <is>
+          <t>OFFICE MACHINES</t>
+        </is>
+      </c>
+      <c r="C48" s="8" t="n">
+        <v>26.476289</v>
+      </c>
+      <c r="D48" s="9" t="n">
+        <v>5.003457149700173</v>
+      </c>
+      <c r="E48" s="8" t="n">
+        <v>33.066469</v>
+      </c>
+      <c r="F48" s="9" t="n">
+        <v>4.682059845065664</v>
+      </c>
+      <c r="G48" s="8" t="n">
+        <v>35.963453</v>
+      </c>
+      <c r="H48" s="9" t="n">
+        <v>5.357606963276427</v>
+      </c>
+      <c r="I48" s="8" t="n">
+        <v>11.937275</v>
+      </c>
+      <c r="J48" s="9" t="n">
+        <v>2.520902178533664</v>
+      </c>
+      <c r="K48" s="9" t="n">
+        <v>-34.61075424267117</v>
+      </c>
     </row>
     <row r="49">
-      <c r="A49" s="11" t="n"/>
-      <c r="C49" s="12" t="n"/>
-      <c r="D49" s="13" t="n"/>
-      <c r="E49" s="12" t="n"/>
-      <c r="F49" s="13" t="n"/>
-      <c r="G49" s="12" t="n"/>
-      <c r="H49" s="13" t="n"/>
-      <c r="I49" s="12" t="n"/>
-      <c r="J49" s="13" t="n"/>
-      <c r="K49" s="13" t="n"/>
+      <c r="A49" s="11" t="inlineStr">
+        <is>
+          <t>851</t>
+        </is>
+      </c>
+      <c r="B49" s="1" t="inlineStr">
+        <is>
+          <t>FOOTWEAR</t>
+        </is>
+      </c>
+      <c r="C49" s="8" t="n">
+        <v>25.62873</v>
+      </c>
+      <c r="D49" s="9" t="n">
+        <v>4.843286472520197</v>
+      </c>
+      <c r="E49" s="8" t="n">
+        <v>21.854838</v>
+      </c>
+      <c r="F49" s="9" t="n">
+        <v>3.094544489168625</v>
+      </c>
+      <c r="G49" s="8" t="n">
+        <v>20.628925</v>
+      </c>
+      <c r="H49" s="9" t="n">
+        <v>3.073166312058722</v>
+      </c>
+      <c r="I49" s="8" t="n">
+        <v>10.580896</v>
+      </c>
+      <c r="J49" s="9" t="n">
+        <v>2.234463374366271</v>
+      </c>
+      <c r="K49" s="9" t="n">
+        <v>14.81891508568911</v>
+      </c>
     </row>
     <row r="50">
-      <c r="A50" s="11" t="n"/>
-      <c r="C50" s="12" t="n"/>
-      <c r="D50" s="13" t="n"/>
-      <c r="E50" s="12" t="n"/>
-      <c r="F50" s="13" t="n"/>
-      <c r="G50" s="12" t="n"/>
-      <c r="H50" s="13" t="n"/>
-      <c r="I50" s="12" t="n"/>
-      <c r="J50" s="13" t="n"/>
-      <c r="K50" s="13" t="n"/>
+      <c r="A50" s="11" t="inlineStr">
+        <is>
+          <t>778</t>
+        </is>
+      </c>
+      <c r="B50" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL MACHINERY AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C50" s="8" t="n">
+        <v>5.389657</v>
+      </c>
+      <c r="D50" s="9" t="n">
+        <v>1.018530876856707</v>
+      </c>
+      <c r="E50" s="8" t="n">
+        <v>6.926377</v>
+      </c>
+      <c r="F50" s="9" t="n">
+        <v>0.9807431093863206</v>
+      </c>
+      <c r="G50" s="8" t="n">
+        <v>5.338997</v>
+      </c>
+      <c r="H50" s="9" t="n">
+        <v>0.7953698857590776</v>
+      </c>
+      <c r="I50" s="8" t="n">
+        <v>7.232382</v>
+      </c>
+      <c r="J50" s="9" t="n">
+        <v>1.527327429399729</v>
+      </c>
+      <c r="K50" s="9" t="n">
+        <v>156.1730295075766</v>
+      </c>
     </row>
     <row r="51">
-      <c r="A51" s="11" t="n"/>
-      <c r="C51" s="12" t="n"/>
-      <c r="D51" s="13" t="n"/>
-      <c r="E51" s="12" t="n"/>
-      <c r="F51" s="13" t="n"/>
-      <c r="G51" s="12" t="n"/>
-      <c r="H51" s="13" t="n"/>
-      <c r="I51" s="12" t="n"/>
-      <c r="J51" s="13" t="n"/>
-      <c r="K51" s="13" t="n"/>
+      <c r="A51" s="11" t="inlineStr">
+        <is>
+          <t>843</t>
+        </is>
+      </c>
+      <c r="B51" s="1" t="inlineStr">
+        <is>
+          <t>MEN'S OR BOYS' COATS, CAPES, JACKETS, SUITS, BLAZERS, TROUSERS, SHORTS, SHIRTS, UNDERWEAR, NIGHTWEAR AND SIMILAR ARTICLES OF TEXTILE FABRICS, KNITTED OR CROCHETED</t>
+        </is>
+      </c>
+      <c r="C51" s="8" t="n">
+        <v>6.100615</v>
+      </c>
+      <c r="D51" s="9" t="n">
+        <v>1.152886861875474</v>
+      </c>
+      <c r="E51" s="8" t="n">
+        <v>10.557678</v>
+      </c>
+      <c r="F51" s="9" t="n">
+        <v>1.494918620459087</v>
+      </c>
+      <c r="G51" s="8" t="n">
+        <v>15.515743</v>
+      </c>
+      <c r="H51" s="9" t="n">
+        <v>2.311436911722784</v>
+      </c>
+      <c r="I51" s="8" t="n">
+        <v>6.95828</v>
+      </c>
+      <c r="J51" s="9" t="n">
+        <v>1.469442834386175</v>
+      </c>
+      <c r="K51" s="9" t="n">
+        <v>-33.68099689138609</v>
+      </c>
     </row>
     <row r="52">
-      <c r="A52" s="11" t="n"/>
-      <c r="C52" s="12" t="n"/>
-      <c r="D52" s="13" t="n"/>
-      <c r="E52" s="12" t="n"/>
-      <c r="F52" s="13" t="n"/>
-      <c r="G52" s="12" t="n"/>
-      <c r="H52" s="13" t="n"/>
-      <c r="I52" s="12" t="n"/>
-      <c r="J52" s="13" t="n"/>
-      <c r="K52" s="13" t="n"/>
+      <c r="A52" s="11" t="inlineStr">
+        <is>
+          <t>885</t>
+        </is>
+      </c>
+      <c r="B52" s="1" t="inlineStr">
+        <is>
+          <t>WATCHES AND CLOCKS</t>
+        </is>
+      </c>
+      <c r="C52" s="8" t="n">
+        <v>21.10448</v>
+      </c>
+      <c r="D52" s="9" t="n">
+        <v>3.988299166348588</v>
+      </c>
+      <c r="E52" s="8" t="n">
+        <v>13.274057</v>
+      </c>
+      <c r="F52" s="9" t="n">
+        <v>1.879545386621499</v>
+      </c>
+      <c r="G52" s="8" t="n">
+        <v>10.397936</v>
+      </c>
+      <c r="H52" s="9" t="n">
+        <v>1.549018508242316</v>
+      </c>
+      <c r="I52" s="8" t="n">
+        <v>5.556294</v>
+      </c>
+      <c r="J52" s="9" t="n">
+        <v>1.173372788108972</v>
+      </c>
+      <c r="K52" s="9" t="n">
+        <v>1.14665033163095</v>
+      </c>
     </row>
     <row r="53">
-      <c r="A53" s="11" t="n"/>
-      <c r="C53" s="12" t="n"/>
-      <c r="D53" s="13" t="n"/>
-      <c r="E53" s="12" t="n"/>
-      <c r="F53" s="13" t="n"/>
-      <c r="G53" s="12" t="n"/>
-      <c r="H53" s="13" t="n"/>
-      <c r="I53" s="12" t="n"/>
-      <c r="J53" s="13" t="n"/>
-      <c r="K53" s="13" t="n"/>
+      <c r="A53" s="11" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
+      <c r="B53" s="1" t="inlineStr">
+        <is>
+          <t>TOBACCO, MANUFACTURED</t>
+        </is>
+      </c>
+      <c r="C53" s="8" t="n">
+        <v>13.174417</v>
+      </c>
+      <c r="D53" s="9" t="n">
+        <v>2.489685428791833</v>
+      </c>
+      <c r="E53" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F53" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G53" s="8" t="n">
+        <v>4.576202</v>
+      </c>
+      <c r="H53" s="9" t="n">
+        <v>0.6817335282170907</v>
+      </c>
+      <c r="I53" s="8" t="n">
+        <v>5.043167</v>
+      </c>
+      <c r="J53" s="9" t="n">
+        <v>1.065011124985315</v>
+      </c>
+      <c r="K53" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="54">
-      <c r="A54" s="11" t="n"/>
-      <c r="C54" s="12" t="n"/>
-      <c r="D54" s="13" t="n"/>
-      <c r="E54" s="12" t="n"/>
-      <c r="F54" s="13" t="n"/>
-      <c r="G54" s="12" t="n"/>
-      <c r="H54" s="13" t="n"/>
-      <c r="I54" s="12" t="n"/>
-      <c r="J54" s="13" t="n"/>
-      <c r="K54" s="13" t="n"/>
+      <c r="A54" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B54" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C54" s="8" t="n">
+        <v>112.576465</v>
+      </c>
+      <c r="D54" s="9" t="n">
+        <v>21.27456452421339</v>
+      </c>
+      <c r="E54" s="8" t="n">
+        <v>91.107045</v>
+      </c>
+      <c r="F54" s="9" t="n">
+        <v>12.90033831544246</v>
+      </c>
+      <c r="G54" s="8" t="n">
+        <v>87.414106</v>
+      </c>
+      <c r="H54" s="9" t="n">
+        <v>13.02239868330173</v>
+      </c>
+      <c r="I54" s="8" t="n">
+        <v>44.091067</v>
+      </c>
+      <c r="J54" s="9" t="n">
+        <v>9.311108846380243</v>
+      </c>
+      <c r="K54" s="9" t="n">
+        <v>-13.56900125017091</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="11" t="n"/>
@@ -1293,136 +2364,453 @@
       <c r="K56" s="13" t="n"/>
     </row>
     <row r="57">
-      <c r="A57" s="11" t="n"/>
-      <c r="C57" s="12" t="n"/>
-      <c r="D57" s="13" t="n"/>
-      <c r="E57" s="12" t="n"/>
-      <c r="F57" s="13" t="n"/>
-      <c r="G57" s="12" t="n"/>
-      <c r="H57" s="13" t="n"/>
-      <c r="I57" s="12" t="n"/>
-      <c r="J57" s="13" t="n"/>
-      <c r="K57" s="13" t="n"/>
+      <c r="A57" s="11" t="inlineStr">
+        <is>
+          <t>012</t>
+        </is>
+      </c>
+      <c r="B57" s="1" t="inlineStr">
+        <is>
+          <t>OTHER MEAT AND EDIBLE MEAT OFFAL, FRESH, CHILLED OR FROZEN (EXCEPT MEAT AND MEAT OFFAL UNFIT FOR HUMAN CONSUMPTION)</t>
+        </is>
+      </c>
+      <c r="C57" s="8" t="n">
+        <v>223.621593</v>
+      </c>
+      <c r="D57" s="9" t="n">
+        <v>51.07417320382649</v>
+      </c>
+      <c r="E57" s="8" t="n">
+        <v>227.5185</v>
+      </c>
+      <c r="F57" s="9" t="n">
+        <v>54.33521306181854</v>
+      </c>
+      <c r="G57" s="8" t="n">
+        <v>282.925983</v>
+      </c>
+      <c r="H57" s="9" t="n">
+        <v>56.73790644825385</v>
+      </c>
+      <c r="I57" s="8" t="n">
+        <v>161.509366</v>
+      </c>
+      <c r="J57" s="9" t="n">
+        <v>60.90377966358213</v>
+      </c>
+      <c r="K57" s="9" t="n">
+        <v>-6.102420168314238</v>
+      </c>
     </row>
     <row r="58">
-      <c r="A58" s="11" t="n"/>
-      <c r="C58" s="12" t="n"/>
-      <c r="D58" s="13" t="n"/>
-      <c r="E58" s="12" t="n"/>
-      <c r="F58" s="13" t="n"/>
-      <c r="G58" s="12" t="n"/>
-      <c r="H58" s="13" t="n"/>
-      <c r="I58" s="12" t="n"/>
-      <c r="J58" s="13" t="n"/>
-      <c r="K58" s="13" t="n"/>
+      <c r="A58" s="11" t="inlineStr">
+        <is>
+          <t>553</t>
+        </is>
+      </c>
+      <c r="B58" s="1" t="inlineStr">
+        <is>
+          <t>PERFUMERY, COSMETICS OR TOILET PREPARATIONS (EXCLUDING SOAPS)</t>
+        </is>
+      </c>
+      <c r="C58" s="8" t="n">
+        <v>77.95489499999999</v>
+      </c>
+      <c r="D58" s="9" t="n">
+        <v>17.80454989119099</v>
+      </c>
+      <c r="E58" s="8" t="n">
+        <v>76.022301</v>
+      </c>
+      <c r="F58" s="9" t="n">
+        <v>18.15539361539699</v>
+      </c>
+      <c r="G58" s="8" t="n">
+        <v>81.503713</v>
+      </c>
+      <c r="H58" s="9" t="n">
+        <v>16.34473438722428</v>
+      </c>
+      <c r="I58" s="8" t="n">
+        <v>28.837717</v>
+      </c>
+      <c r="J58" s="9" t="n">
+        <v>10.87445270615908</v>
+      </c>
+      <c r="K58" s="9" t="n">
+        <v>-45.93123284542408</v>
+      </c>
     </row>
     <row r="59">
-      <c r="A59" s="11" t="n"/>
-      <c r="C59" s="12" t="n"/>
-      <c r="D59" s="13" t="n"/>
-      <c r="E59" s="12" t="n"/>
-      <c r="F59" s="13" t="n"/>
-      <c r="G59" s="12" t="n"/>
-      <c r="H59" s="13" t="n"/>
-      <c r="I59" s="12" t="n"/>
-      <c r="J59" s="13" t="n"/>
-      <c r="K59" s="13" t="n"/>
+      <c r="A59" s="11" t="inlineStr">
+        <is>
+          <t>611</t>
+        </is>
+      </c>
+      <c r="B59" s="1" t="inlineStr">
+        <is>
+          <t>LEATHER</t>
+        </is>
+      </c>
+      <c r="C59" s="8" t="n">
+        <v>19.474366</v>
+      </c>
+      <c r="D59" s="9" t="n">
+        <v>4.447858226815823</v>
+      </c>
+      <c r="E59" s="8" t="n">
+        <v>19.314552</v>
+      </c>
+      <c r="F59" s="9" t="n">
+        <v>4.612637205825344</v>
+      </c>
+      <c r="G59" s="8" t="n">
+        <v>32.69813</v>
+      </c>
+      <c r="H59" s="9" t="n">
+        <v>6.55727487910802</v>
+      </c>
+      <c r="I59" s="8" t="n">
+        <v>17.118821</v>
+      </c>
+      <c r="J59" s="9" t="n">
+        <v>6.455358770241862</v>
+      </c>
+      <c r="K59" s="9" t="n">
+        <v>-31.26795231482152</v>
+      </c>
     </row>
     <row r="60">
-      <c r="A60" s="11" t="n"/>
-      <c r="C60" s="12" t="n"/>
-      <c r="D60" s="13" t="n"/>
-      <c r="E60" s="12" t="n"/>
-      <c r="F60" s="13" t="n"/>
-      <c r="G60" s="12" t="n"/>
-      <c r="H60" s="13" t="n"/>
-      <c r="I60" s="12" t="n"/>
-      <c r="J60" s="13" t="n"/>
-      <c r="K60" s="13" t="n"/>
+      <c r="A60" s="11" t="inlineStr">
+        <is>
+          <t>011</t>
+        </is>
+      </c>
+      <c r="B60" s="1" t="inlineStr">
+        <is>
+          <t>MEAT OF BOVINE ANIMALS, FRESH, CHILLED OR FROZEN</t>
+        </is>
+      </c>
+      <c r="C60" s="8" t="n">
+        <v>74.300755</v>
+      </c>
+      <c r="D60" s="9" t="n">
+        <v>16.96996063365436</v>
+      </c>
+      <c r="E60" s="8" t="n">
+        <v>39.723216</v>
+      </c>
+      <c r="F60" s="9" t="n">
+        <v>9.486566608256645</v>
+      </c>
+      <c r="G60" s="8" t="n">
+        <v>25.931174</v>
+      </c>
+      <c r="H60" s="9" t="n">
+        <v>5.200231201477853</v>
+      </c>
+      <c r="I60" s="8" t="n">
+        <v>14.674118</v>
+      </c>
+      <c r="J60" s="9" t="n">
+        <v>5.533482494318035</v>
+      </c>
+      <c r="K60" s="9" t="n">
+        <v>-23.66518803187558</v>
+      </c>
     </row>
     <row r="61">
-      <c r="A61" s="11" t="n"/>
-      <c r="C61" s="12" t="n"/>
-      <c r="D61" s="13" t="n"/>
-      <c r="E61" s="12" t="n"/>
-      <c r="F61" s="13" t="n"/>
-      <c r="G61" s="12" t="n"/>
-      <c r="H61" s="13" t="n"/>
-      <c r="I61" s="12" t="n"/>
-      <c r="J61" s="13" t="n"/>
-      <c r="K61" s="13" t="n"/>
+      <c r="A61" s="11" t="inlineStr">
+        <is>
+          <t>885</t>
+        </is>
+      </c>
+      <c r="B61" s="1" t="inlineStr">
+        <is>
+          <t>WATCHES AND CLOCKS</t>
+        </is>
+      </c>
+      <c r="C61" s="8" t="n">
+        <v>5.592731</v>
+      </c>
+      <c r="D61" s="9" t="n">
+        <v>1.27735478468043</v>
+      </c>
+      <c r="E61" s="8" t="n">
+        <v>9.255067</v>
+      </c>
+      <c r="F61" s="9" t="n">
+        <v>2.210264384418875</v>
+      </c>
+      <c r="G61" s="8" t="n">
+        <v>18.579551</v>
+      </c>
+      <c r="H61" s="9" t="n">
+        <v>3.725938548700072</v>
+      </c>
+      <c r="I61" s="8" t="n">
+        <v>11.942608</v>
+      </c>
+      <c r="J61" s="9" t="n">
+        <v>4.503453788807104</v>
+      </c>
+      <c r="K61" s="9" t="n">
+        <v>9.154759072467588</v>
+      </c>
     </row>
     <row r="62">
-      <c r="A62" s="11" t="n"/>
-      <c r="C62" s="12" t="n"/>
-      <c r="D62" s="13" t="n"/>
-      <c r="E62" s="12" t="n"/>
-      <c r="F62" s="13" t="n"/>
-      <c r="G62" s="12" t="n"/>
-      <c r="H62" s="13" t="n"/>
-      <c r="I62" s="12" t="n"/>
-      <c r="J62" s="13" t="n"/>
-      <c r="K62" s="13" t="n"/>
+      <c r="A62" s="11" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="B62" s="1" t="inlineStr">
+        <is>
+          <t>NON-FERROUS BASE METAL WASTE AND SCRAP, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C62" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D62" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E62" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F62" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G62" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H62" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I62" s="8" t="n">
+        <v>7.8332</v>
+      </c>
+      <c r="J62" s="9" t="n">
+        <v>2.953831710668541</v>
+      </c>
+      <c r="K62" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="63">
-      <c r="A63" s="11" t="n"/>
-      <c r="C63" s="12" t="n"/>
-      <c r="D63" s="13" t="n"/>
-      <c r="E63" s="12" t="n"/>
-      <c r="F63" s="13" t="n"/>
-      <c r="G63" s="12" t="n"/>
-      <c r="H63" s="13" t="n"/>
-      <c r="I63" s="12" t="n"/>
-      <c r="J63" s="13" t="n"/>
-      <c r="K63" s="13" t="n"/>
+      <c r="A63" s="11" t="inlineStr">
+        <is>
+          <t>112</t>
+        </is>
+      </c>
+      <c r="B63" s="1" t="inlineStr">
+        <is>
+          <t>ALCOHOLIC BEVERAGES</t>
+        </is>
+      </c>
+      <c r="C63" s="8" t="n">
+        <v>5.196994</v>
+      </c>
+      <c r="D63" s="9" t="n">
+        <v>1.186970221141601</v>
+      </c>
+      <c r="E63" s="8" t="n">
+        <v>4.42321</v>
+      </c>
+      <c r="F63" s="9" t="n">
+        <v>1.056336332066036</v>
+      </c>
+      <c r="G63" s="8" t="n">
+        <v>14.721088</v>
+      </c>
+      <c r="H63" s="9" t="n">
+        <v>2.952163335809678</v>
+      </c>
+      <c r="I63" s="8" t="n">
+        <v>6.285763</v>
+      </c>
+      <c r="J63" s="9" t="n">
+        <v>2.370306653110736</v>
+      </c>
+      <c r="K63" s="9" t="n">
+        <v>-49.68292483389376</v>
+      </c>
     </row>
     <row r="64">
-      <c r="A64" s="11" t="n"/>
-      <c r="C64" s="12" t="n"/>
-      <c r="D64" s="13" t="n"/>
-      <c r="E64" s="12" t="n"/>
-      <c r="F64" s="13" t="n"/>
-      <c r="G64" s="12" t="n"/>
-      <c r="H64" s="13" t="n"/>
-      <c r="I64" s="12" t="n"/>
-      <c r="J64" s="13" t="n"/>
-      <c r="K64" s="13" t="n"/>
+      <c r="A64" s="11" t="inlineStr">
+        <is>
+          <t>035</t>
+        </is>
+      </c>
+      <c r="B64" s="1" t="inlineStr">
+        <is>
+          <t>FISH, DRIED, SALTED OR IN BRINE; SMOKED FISH; FLOURS, MEALS AND PELLETS OF FISH, FIT FOR HUMAN CONSUMPTION</t>
+        </is>
+      </c>
+      <c r="C64" s="8" t="n">
+        <v>3.821474</v>
+      </c>
+      <c r="D64" s="9" t="n">
+        <v>0.8728075958653939</v>
+      </c>
+      <c r="E64" s="8" t="n">
+        <v>2.233584</v>
+      </c>
+      <c r="F64" s="9" t="n">
+        <v>0.5334171178672016</v>
+      </c>
+      <c r="G64" s="8" t="n">
+        <v>1.40361</v>
+      </c>
+      <c r="H64" s="9" t="n">
+        <v>0.2814796012207673</v>
+      </c>
+      <c r="I64" s="8" t="n">
+        <v>4.411737</v>
+      </c>
+      <c r="J64" s="9" t="n">
+        <v>1.663627719160713</v>
+      </c>
+      <c r="K64" s="9" t="n">
+        <v>214.3135913822216</v>
+      </c>
     </row>
     <row r="65">
-      <c r="A65" s="11" t="n"/>
-      <c r="C65" s="12" t="n"/>
-      <c r="D65" s="13" t="n"/>
-      <c r="E65" s="12" t="n"/>
-      <c r="F65" s="13" t="n"/>
-      <c r="G65" s="12" t="n"/>
-      <c r="H65" s="13" t="n"/>
-      <c r="I65" s="12" t="n"/>
-      <c r="J65" s="13" t="n"/>
-      <c r="K65" s="13" t="n"/>
+      <c r="A65" s="11" t="inlineStr">
+        <is>
+          <t>291</t>
+        </is>
+      </c>
+      <c r="B65" s="1" t="inlineStr">
+        <is>
+          <t>CRUDE ANIMAL MATERIALS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C65" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D65" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E65" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F65" s="9" t="n">
+        <v>0.1017258758535508</v>
+      </c>
+      <c r="G65" s="8" t="n">
+        <v>4.701577</v>
+      </c>
+      <c r="H65" s="9" t="n">
+        <v>0.9428530853076933</v>
+      </c>
+      <c r="I65" s="8" t="n">
+        <v>2.792654</v>
+      </c>
+      <c r="J65" s="9" t="n">
+        <v>1.0530855770471</v>
+      </c>
+      <c r="K65" s="9" t="n">
+        <v>-20.57178336305979</v>
+      </c>
     </row>
     <row r="66">
-      <c r="A66" s="11" t="n"/>
-      <c r="C66" s="12" t="n"/>
-      <c r="D66" s="13" t="n"/>
-      <c r="E66" s="12" t="n"/>
-      <c r="F66" s="13" t="n"/>
-      <c r="G66" s="12" t="n"/>
-      <c r="H66" s="13" t="n"/>
-      <c r="I66" s="12" t="n"/>
-      <c r="J66" s="13" t="n"/>
-      <c r="K66" s="13" t="n"/>
+      <c r="A66" s="11" t="inlineStr">
+        <is>
+          <t>017</t>
+        </is>
+      </c>
+      <c r="B66" s="1" t="inlineStr">
+        <is>
+          <t>MEAT AND EDIBLE MEAT OFFAL, PREPARED OR PRESERVED, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C66" s="8" t="n">
+        <v>5.345292</v>
+      </c>
+      <c r="D66" s="9" t="n">
+        <v>1.220840822080308</v>
+      </c>
+      <c r="E66" s="8" t="n">
+        <v>10.502528</v>
+      </c>
+      <c r="F66" s="9" t="n">
+        <v>2.508178880256836</v>
+      </c>
+      <c r="G66" s="8" t="n">
+        <v>5.861002</v>
+      </c>
+      <c r="H66" s="9" t="n">
+        <v>1.175363887200946</v>
+      </c>
+      <c r="I66" s="8" t="n">
+        <v>2.588963</v>
+      </c>
+      <c r="J66" s="9" t="n">
+        <v>0.9762754694310829</v>
+      </c>
+      <c r="K66" s="9" t="n">
+        <v>-49.3452947191177</v>
+      </c>
     </row>
     <row r="67">
-      <c r="A67" s="11" t="n"/>
-      <c r="C67" s="12" t="n"/>
-      <c r="D67" s="13" t="n"/>
-      <c r="E67" s="12" t="n"/>
-      <c r="F67" s="13" t="n"/>
-      <c r="G67" s="12" t="n"/>
-      <c r="H67" s="13" t="n"/>
-      <c r="I67" s="12" t="n"/>
-      <c r="J67" s="13" t="n"/>
-      <c r="K67" s="13" t="n"/>
+      <c r="A67" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B67" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C67" s="8" t="n">
+        <v>22.528832</v>
+      </c>
+      <c r="D67" s="9" t="n">
+        <v>5.145484620744602</v>
+      </c>
+      <c r="E67" s="8" t="n">
+        <v>29.312303</v>
+      </c>
+      <c r="F67" s="9" t="n">
+        <v>7.000266918239979</v>
+      </c>
+      <c r="G67" s="8" t="n">
+        <v>30.328424</v>
+      </c>
+      <c r="H67" s="9" t="n">
+        <v>6.082054625696844</v>
+      </c>
+      <c r="I67" s="8" t="n">
+        <v>7.192808</v>
+      </c>
+      <c r="J67" s="9" t="n">
+        <v>2.712345447473621</v>
+      </c>
+      <c r="K67" s="9" t="n">
+        <v>-71.39876004171686</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="11" t="n"/>
